--- a/Test Data/T1820.xlsx
+++ b/Test Data/T1820.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEDC852-EC63-4AC1-988C-D03F48321722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80699369-6768-4D7B-891A-1899BB4627ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Repeaters" sheetId="7" r:id="rId1"/>
-    <sheet name="Repeaters Updated" sheetId="10" r:id="rId2"/>
+    <sheet name="RepeatersOld" sheetId="7" r:id="rId1"/>
+    <sheet name="Repeaters" sheetId="10" r:id="rId2"/>
     <sheet name="Miscellaneous" sheetId="6" r:id="rId3"/>
     <sheet name="Miscellaneous_ZXPanels" sheetId="11" r:id="rId4"/>
     <sheet name="Printers" sheetId="9" r:id="rId5"/>
@@ -559,7 +559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0CE43-C2A8-4DC2-8C6C-856D70AB4DD1}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8275535-83B2-4E17-BA49-07A475D268F4}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
